--- a/CoinToss.xlsx
+++ b/CoinToss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab365-my.sharepoint.com/personal/jgallo_uab_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgallo/Documents/College/2022spring/WorldThroData/code/NormalDistribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B33CB56-EB87-40B4-9FFE-3AD8B875B3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21D82FA-4440-2343-B43C-04AD0702AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="2800" windowWidth="30220" windowHeight="20620" xr2:uid="{E896F14B-620D-8546-B151-94839756D8EC}"/>
   </bookViews>
@@ -35,23 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Trail 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trail 2 </t>
-  </si>
-  <si>
-    <t>Trail 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Trial 4 </t>
   </si>
   <si>
-    <t>Trail 5</t>
-  </si>
-  <si>
     <t>jason</t>
   </si>
   <si>
@@ -65,13 +53,28 @@
   </si>
   <si>
     <t>Tyler</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Trial 5</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
+  </si>
+  <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial 2 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,153 +434,156 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:O15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" t="s">
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1"/>
